--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB1E5FB3-F4DF-4705-8FB0-89D47458D667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E56A52-6AD1-4AC1-8E2F-D23DC0DEDF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1565,7 +1565,7 @@
                   <c:v>0.92592592592592593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.92</c:v>
+                  <c:v>0.86363636363636365</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>0.92</v>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2108,7 +2108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2830,8 +2830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2868,7 +2868,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.92</v>
+        <v>0.86363636363636365</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -3016,7 +3016,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -3270,7 +3270,7 @@
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
@@ -3284,7 +3284,7 @@
         <v>58</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
@@ -3338,7 +3338,7 @@
         <v>65</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>

--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E56A52-6AD1-4AC1-8E2F-D23DC0DEDF58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FA2E2-C1D6-4834-BE94-66E9684AB4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="140">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1029,16 +1029,25 @@
     <t>Web Design</t>
   </si>
   <si>
-    <t>Aluisio Santos</t>
-  </si>
-  <si>
-    <t>Foi definido, porém será testado na fase de construção</t>
-  </si>
-  <si>
-    <t>Foram criados dois guias de implementação, pois o Iago está com o front-end e o Rogério com a parte de beck-end</t>
-  </si>
-  <si>
-    <t>Será testado na fase de construção</t>
+    <t>O teste será realizado na próxima fase.</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Aluisio Santos, Iago e Rogério</t>
+  </si>
+  <si>
+    <t>Os testes ainda em execução, não iniciado a fase de correção de erro</t>
+  </si>
+  <si>
+    <t>O de pacotes não se aplica no projeto e deployment.</t>
+  </si>
+  <si>
+    <t>Foram criados dois guias de implementação, pois o Iago está com o front-end e o Rogério com a parte de back-end</t>
+  </si>
+  <si>
+    <t>Testes não finalizados</t>
   </si>
 </sst>
 </file>
@@ -1565,7 +1574,7 @@
                   <c:v>0.92592592592592593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.86363636363636365</c:v>
+                  <c:v>0.76923076923076927</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2071,7 +2080,7 @@
       </c>
       <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>0.86363636363636365</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2830,8 +2839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2860,7 +2869,7 @@
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="28">
-        <v>44181</v>
+        <v>44191</v>
       </c>
       <c r="D2" s="40" t="s">
         <v>46</v>
@@ -2868,7 +2877,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.86363636363636365</v>
+        <v>0.76923076923076927</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2877,7 +2886,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
@@ -2974,9 +2983,11 @@
         <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="8"/>
+        <v>115</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="30">
@@ -3016,7 +3027,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
@@ -3081,7 +3092,7 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="45">
       <c r="A19" s="33"/>
       <c r="B19" s="5">
         <v>9</v>
@@ -3090,10 +3101,10 @@
         <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -3108,7 +3119,9 @@
       <c r="D20" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>137</v>
+      </c>
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="30">
@@ -3120,7 +3133,7 @@
         <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -3150,7 +3163,9 @@
       <c r="D23" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>134</v>
+      </c>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" s="1" customFormat="1" ht="15">
@@ -3175,7 +3190,7 @@
         <v>119</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -3214,10 +3229,10 @@
         <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -3230,7 +3245,7 @@
         <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
@@ -3244,7 +3259,7 @@
         <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
@@ -3257,7 +3272,9 @@
       <c r="C31" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>119</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
@@ -3324,7 +3341,7 @@
         <v>117</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
@@ -3352,7 +3369,7 @@
         <v>116</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
@@ -3366,7 +3383,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>

--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FA2E2-C1D6-4834-BE94-66E9684AB4F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B863529E-BD3C-4A9A-A1BB-C6290B87788D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="142">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1029,9 +1029,6 @@
     <t>Web Design</t>
   </si>
   <si>
-    <t>O teste será realizado na próxima fase.</t>
-  </si>
-  <si>
     <t>PostgreSQL</t>
   </si>
   <si>
@@ -1047,7 +1044,16 @@
     <t>Foram criados dois guias de implementação, pois o Iago está com o front-end e o Rogério com a parte de back-end</t>
   </si>
   <si>
-    <t>Testes não finalizados</t>
+    <t>Foi atualizado após a revisão do Professor Murakami e agora a função dos usuários estão mais claras.</t>
+  </si>
+  <si>
+    <t>Ainda não foi necessário o uso deste artefato.</t>
+  </si>
+  <si>
+    <t>Foram atualizados e especificados as histórias dos usuários.</t>
+  </si>
+  <si>
+    <t>Feitos alguns testes mas ainda não finalizados</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1580,7 @@
                   <c:v>0.92592592592592593</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.76923076923076927</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2080,7 +2086,7 @@
       </c>
       <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>0.76923076923076927</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2840,7 +2846,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2877,7 +2883,7 @@
       <c r="E2" s="41"/>
       <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.76923076923076927</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -2886,7 +2892,7 @@
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>45</v>
@@ -2926,7 +2932,7 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="30">
+    <row r="6" spans="1:6" ht="60">
       <c r="A6" s="33"/>
       <c r="B6" s="5">
         <v>1</v>
@@ -2935,9 +2941,11 @@
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="8"/>
+        <v>119</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>138</v>
+      </c>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15">
@@ -2983,10 +2991,10 @@
         <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="F10" s="8"/>
     </row>
@@ -3042,7 +3050,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="15">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="33"/>
       <c r="B15" s="5">
         <v>7</v>
@@ -3053,7 +3061,9 @@
       <c r="D15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15">
@@ -3104,7 +3114,7 @@
         <v>119</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F19" s="8"/>
     </row>
@@ -3120,7 +3130,7 @@
         <v>119</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F20" s="8"/>
     </row>
@@ -3164,7 +3174,7 @@
         <v>119</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F23" s="8"/>
     </row>
@@ -3190,7 +3200,7 @@
         <v>119</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F25" s="8"/>
     </row>
@@ -3229,10 +3239,10 @@
         <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F28" s="8"/>
     </row>
@@ -4188,17 +4198,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4855,6 +4865,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4862,11 +4877,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B863529E-BD3C-4A9A-A1BB-C6290B87788D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E120878C-B409-433C-A577-8B4C1D966255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="153">
   <si>
     <t>Ambiente</t>
   </si>
@@ -987,73 +987,108 @@
     <t>Foi feito o planejamento do Sprint?</t>
   </si>
   <si>
+    <t>caso de desenvolvimento</t>
+  </si>
+  <si>
+    <t>Se incluido algum documento foi criado template e armazenado na pasta Ambiente?</t>
+  </si>
+  <si>
+    <t>Se utilizada/substituida alguma ferramenta existe referência/link para acessá-la?</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Sim</t>
   </si>
   <si>
-    <t>Atualizar visão</t>
-  </si>
-  <si>
-    <t>A nomeação do arquivo deve ter a sigla padronizada em todos os documentos.</t>
-  </si>
-  <si>
-    <t>Informações implicítas</t>
-  </si>
-  <si>
-    <t>Ver visão</t>
-  </si>
-  <si>
-    <t>Preciso saber quando e o que será entregue em cada sprint. SpinOff é um processo iterativo e Incremental.</t>
-  </si>
-  <si>
-    <t>Aluisio Sntos - Iago Fernandes - Rogério Viana</t>
-  </si>
-  <si>
-    <t>Procurar no curso SpinOff</t>
-  </si>
-  <si>
-    <t>O projeto está no repositório do GitHub.</t>
-  </si>
-  <si>
-    <t>Aprovado pelo Owner</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Margem de erro de 30%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cronograma e relatório simples de início do desenvolvimento. </t>
-  </si>
-  <si>
-    <t>Web Design</t>
-  </si>
-  <si>
-    <t>PostgreSQL</t>
+    <t>Não foi criado o caso de desenvolvimento para mostrar as alterações do processo, por exemplo os links para as ferramentas adotadas/substituídas.</t>
+  </si>
+  <si>
+    <t>Estão muito genéricas, as necessidades normalmente são as funcionalidades desejadas pelo cliente.</t>
+  </si>
+  <si>
+    <t>Faltou especificar as ferramenta adotadas/substituídas.</t>
+  </si>
+  <si>
+    <t>As entregas devem corresponder ao número de sprints e respectivos produtos planejados por fase/iteração e não fase.</t>
+  </si>
+  <si>
+    <t>Deve-se utilizar o template do SpinOf. O projeto dividiu em dois projetos Astah, é um só.</t>
+  </si>
+  <si>
+    <t>Os objetivos das especificações de casos de uso não correspondem às descrições do modelo de caso de uso. É só CRUD? A especificação 2 não mostra só isso. Apesar de as Histórias corresponderem. Recomendação: ou usar especificação ou história. Não é normal e nem produtivo usar os dois, a não ser que queiram realmente.</t>
+  </si>
+  <si>
+    <t>Não preenchido.</t>
+  </si>
+  <si>
+    <t>Descrição do ator não está clara, lembrando que o ator é algo ou alguém que usa, interage com o sistema.
+Em vários documentos é utilizado o termo "freelancer" e "publicador", o que não corresponde ao ator "usuário". Tem que ser claro o modelo e as especificações. Me parece que existem dois tipos de atores e só foi modelado um usuário genérico.</t>
+  </si>
+  <si>
+    <t>meio confuso, mas ok.</t>
+  </si>
+  <si>
+    <t>A história de usuarios não pode ter parte de funcionalidades de outra história (produtos). Uma história para cada necessidade.</t>
+  </si>
+  <si>
+    <t>Modelo de negócio (diagrama de classes) não pode ser dependente de tecnologia, deve conter apenas entidades do negócio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Em relação ao código do frontend no modelo não é especificado e no código a entidade usuário está como login. Tem que criar uma forma de rastrear que facilite a manutenção.</t>
+  </si>
+  <si>
+    <t>As classes do modelo não representam as classes envolvidas na realização da história escolhida para definir e testar a arquitetura. O modelo deve refletir fielmente os nomes das classes implementadas. Por exemplo, no modelo de caso de uso é usado usuário e no código Login.
+Os pacotes não foram representados no modelo e devem ser representados para facilitar o entendimento e localização das classes.</t>
+  </si>
+  <si>
+    <t>não encontrado  documentação de código no codigo.</t>
+  </si>
+  <si>
+    <t>na suite de testes só tem teste de conexão. Deve haver orientação do que, nom mínimo deve estar na suite de testes. O que deve ser orientado no guia de implementação.</t>
+  </si>
+  <si>
+    <t>Testar um caso de uso</t>
+  </si>
+  <si>
+    <t>sugestão de melhoria</t>
+  </si>
+  <si>
+    <t>A aplicação Job Sea, trabalha com o sistema de API e SPA. SPA (Single Page Application), é a forma que o React JS trabalha, tirando assim o maior proveito possível das chamadas a API, por conta disto, o frontend não tem nenhuma referencia direto aos casos de uso explicitados no backend. O que pode ser relacionado dessa forma, como uma referência as regras de negócio existentes no backend, são as chamadas a API, que ocorrem por convenção dentro dos arquivos na pasta services - src/services/. Esses metodos de chamada sao todos invocados em suas paginas respectivas, de acordo com a necessidade.</t>
+  </si>
+  <si>
+    <t>Os padrões definidos não são aplicados no código, particularmente a documentação. Em relação ao código do front-end está muito difícil identificar por exemplo, quais arquivos correspondem ao caso de uso usado para definir a arquitetura. No modelo não é especificado e no código todos estão com o mesmo nome. portanto não como rasterar a funcionalidade em caso de manutenção. Muito difícil de achar os artefatos de uma funcionalidade caso ela precise de manutenção. Tem que criar uma forma de rastrear que facilite a manutenção.</t>
+  </si>
+  <si>
+    <t>Refeito e atualizado*</t>
+  </si>
+  <si>
+    <t>A aplicação Job Sea, trabalha com o sistema de API e SPA. SPA (Single Page Application), é a forma que o React JS trabalha, tirando assim o maior proveito possível das chamadas a API,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pode ser encontrado a documentação no URL: http://200.98.204.176:8080/swagger-ui.html#/usuario-controller, apesar que o código só deve ser comentado em casos especiais (Em um metodo ou implementação de regras de negócios de alta complexidade), caso não exista a necessidade não deve-se comentado.</t>
+  </si>
+  <si>
+    <t>Tudo refeito e atualizado no GitHub inclisive foi feito  o deployment do projeto.</t>
   </si>
   <si>
     <t>Aluisio Santos, Iago e Rogério</t>
   </si>
   <si>
-    <t>Os testes ainda em execução, não iniciado a fase de correção de erro</t>
-  </si>
-  <si>
-    <t>O de pacotes não se aplica no projeto e deployment.</t>
-  </si>
-  <si>
-    <t>Foram criados dois guias de implementação, pois o Iago está com o front-end e o Rogério com a parte de back-end</t>
-  </si>
-  <si>
-    <t>Foi atualizado após a revisão do Professor Murakami e agora a função dos usuários estão mais claras.</t>
-  </si>
-  <si>
-    <t>Ainda não foi necessário o uso deste artefato.</t>
-  </si>
-  <si>
-    <t>Foram atualizados e especificados as histórias dos usuários.</t>
-  </si>
-  <si>
-    <t>Feitos alguns testes mas ainda não finalizados</t>
+    <t>Foram detalhadas</t>
+  </si>
+  <si>
+    <t>Foram refeitos</t>
+  </si>
+  <si>
+    <t>Ratificadas e atualizadas</t>
+  </si>
+  <si>
+    <t>Foram refeitas e atualizadas</t>
+  </si>
+  <si>
+    <t>O planejado foram quatro Sprints e estamos dentro do prazo planejado.</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1394,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -1433,6 +1468,9 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1577,10 +1615,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.92592592592592593</c:v>
+                  <c:v>0.9375</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2058,10 +2096,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
@@ -2077,7 +2115,7 @@
       </c>
       <c r="B3" s="21">
         <f>'Ver-Iniciação1'!$F$2</f>
-        <v>0.92592592592592593</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2086,7 +2124,7 @@
       </c>
       <c r="B4" s="21">
         <f>'Ver-Elaboração1'!$F$2</f>
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2121,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2138,45 +2176,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="28">
-        <v>44159</v>
-      </c>
-      <c r="D2" s="40" t="s">
+        <v>43840</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="22">
-        <f>COUNTIF(D5:D49,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.92592592592592593</v>
+        <f>COUNTIF(D5:D52,"Sim")/(COUNTA(D5:D52)-COUNTIF(D5:D52,"NA"))</f>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="6" t="s">
@@ -2199,7 +2237,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="10"/>
@@ -2210,8 +2248,8 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="45">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:6" ht="15">
+      <c r="A6" s="37"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -2219,15 +2257,13 @@
         <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>131</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="10"/>
@@ -2236,12 +2272,10 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
-        <v>120</v>
-      </c>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="23">
         <v>2</v>
       </c>
@@ -2249,15 +2283,13 @@
         <v>98</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>121</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="5">
         <v>3</v>
       </c>
@@ -2265,15 +2297,13 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>122</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="15">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:6" ht="60">
+      <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>4</v>
       </c>
@@ -2281,13 +2311,17 @@
         <v>103</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="1" customFormat="1" ht="15">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>5</v>
       </c>
@@ -2295,15 +2329,13 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>123</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:6" ht="30">
+      <c r="A12" s="34"/>
       <c r="B12" s="5">
         <v>6</v>
       </c>
@@ -2311,13 +2343,13 @@
         <v>42</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>3</v>
@@ -2326,8 +2358,8 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
     </row>
-    <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:6" ht="45">
+      <c r="A14" s="34"/>
       <c r="B14" s="24">
         <v>7</v>
       </c>
@@ -2335,13 +2367,17 @@
         <v>98</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="15" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -2349,13 +2385,13 @@
         <v>34</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" ht="210">
+      <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -2363,13 +2399,17 @@
         <v>105</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" ht="15">
-      <c r="A17" s="33"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="24">
         <v>10</v>
       </c>
@@ -2377,15 +2417,13 @@
         <v>102</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>132</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -2393,13 +2431,13 @@
         <v>101</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="10"/>
       <c r="C19" s="11" t="s">
         <v>14</v>
@@ -2409,7 +2447,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="24">
         <v>12</v>
       </c>
@@ -2417,13 +2455,13 @@
         <v>104</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="30">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:6" ht="195">
+      <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>13</v>
       </c>
@@ -2431,13 +2469,17 @@
         <v>106</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="10"/>
       <c r="C22" s="11" t="s">
         <v>4</v>
@@ -2447,7 +2489,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="24">
         <v>14</v>
       </c>
@@ -2455,13 +2497,13 @@
         <v>98</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>15</v>
       </c>
@@ -2469,13 +2511,15 @@
         <v>35</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>130</v>
+      </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="10"/>
       <c r="C25" s="11" t="s">
         <v>36</v>
@@ -2485,7 +2529,7 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="24">
         <v>16</v>
       </c>
@@ -2493,13 +2537,13 @@
         <v>98</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>17</v>
       </c>
@@ -2507,13 +2551,13 @@
         <v>37</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="33" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="10"/>
@@ -2525,7 +2569,7 @@
       <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="33"/>
+      <c r="A29" s="34"/>
       <c r="B29" s="24">
         <v>18</v>
       </c>
@@ -2533,295 +2577,337 @@
         <v>98</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>132</v>
+      </c>
       <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6" ht="15">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="10"/>
       <c r="C30" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="33"/>
+        <v>119</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="90">
+      <c r="A31" s="34"/>
       <c r="B31" s="24">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C31" s="26" t="s">
         <v>98</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>124</v>
+      </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:6" ht="45">
+      <c r="A33" s="34"/>
       <c r="B33" s="5">
+        <v>20</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="8"/>
+    </row>
+    <row r="34" spans="1:6" ht="15">
+      <c r="A34" s="34"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="15">
+      <c r="A35" s="34"/>
+      <c r="B35" s="24">
         <v>21</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="33"/>
-      <c r="B34" s="5">
-        <v>22</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="33"/>
-      <c r="B35" s="5">
-        <v>23</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>109</v>
+      <c r="C35" s="26" t="s">
+        <v>98</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="60">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:6" ht="15">
+      <c r="A36" s="34"/>
       <c r="B36" s="5">
+        <v>22</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6" ht="15">
+      <c r="A37" s="34"/>
+      <c r="B37" s="5">
+        <v>23</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6" ht="15">
+      <c r="A38" s="34"/>
+      <c r="B38" s="5">
         <v>24</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A37" s="33"/>
-      <c r="B37" s="5">
+      <c r="C38" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6" ht="15">
+      <c r="A39" s="34"/>
+      <c r="B39" s="5">
         <v>25</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="15">
-      <c r="A38" s="33"/>
-      <c r="B38" s="5">
-        <v>26</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="15">
-      <c r="A39" s="25"/>
-      <c r="B39" s="5">
-        <v>27</v>
-      </c>
       <c r="C39" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1">
-      <c r="A40" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="31"/>
-      <c r="B41" s="24">
+    <row r="40" spans="1:6" ht="75">
+      <c r="A40" s="34"/>
+      <c r="B40" s="5">
+        <v>26</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A41" s="34"/>
+      <c r="B41" s="5">
+        <v>27</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6" ht="15">
+      <c r="A42" s="34"/>
+      <c r="B42" s="5">
         <v>28</v>
       </c>
-      <c r="C41" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="15">
-      <c r="A42" s="31"/>
-      <c r="B42" s="5">
-        <v>29</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>38</v>
+      <c r="C42" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15">
-      <c r="A43" s="31"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="5">
+        <v>29</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" customHeight="1">
+      <c r="A44" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="20.25" customHeight="1">
-      <c r="A44" s="31"/>
-      <c r="B44" s="5">
+      <c r="B44" s="10"/>
+      <c r="C44" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" ht="30">
+      <c r="A45" s="32"/>
+      <c r="B45" s="24">
+        <v>30</v>
+      </c>
+      <c r="C45" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+    </row>
+    <row r="46" spans="1:6" ht="15">
+      <c r="A46" s="32"/>
+      <c r="B46" s="5">
         <v>31</v>
       </c>
-      <c r="C44" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="15">
-      <c r="A45" s="31"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" ht="15">
-      <c r="A46" s="31"/>
-      <c r="B46" s="24">
-        <v>32</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>98</v>
+      <c r="C46" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="5">
-        <v>33</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>47</v>
+        <v>32</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>39</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="15">
-      <c r="A48" s="31"/>
+    <row r="48" spans="1:6" ht="20.25" customHeight="1">
+      <c r="A48" s="32"/>
       <c r="B48" s="5">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" ht="15">
-      <c r="A49" s="31"/>
-      <c r="B49" s="5">
+      <c r="A49" s="32"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+    </row>
+    <row r="50" spans="1:6" ht="15">
+      <c r="A50" s="32"/>
+      <c r="B50" s="24">
+        <v>34</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+    </row>
+    <row r="51" spans="1:6" ht="15">
+      <c r="A51" s="32"/>
+      <c r="B51" s="5">
         <v>35</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C51" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="8"/>
+    </row>
+    <row r="52" spans="1:6" ht="15">
+      <c r="A52" s="32"/>
+      <c r="B52" s="5">
+        <v>36</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
+      <c r="D52" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F52" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A40:A49"/>
-    <mergeCell ref="A28:A38"/>
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A28:A42"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
@@ -2831,22 +2917,22 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D41:D44 D20:D21 D23:D24 D26:D27 D29 D46:D49 D31:D39 D14:D18 D9:D12" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D45:D48 D20:D21 D23:D24 D26:D27 D8:D12 D35:D43 D14:D18 D50:D52 D29:D33" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967294" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2860,45 +2946,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="28">
-        <v>44191</v>
-      </c>
-      <c r="D2" s="40" t="s">
+        <v>44213</v>
+      </c>
+      <c r="D2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="22">
         <f>COUNTIF(D5:D48,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>0.84</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="D3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="6" t="s">
@@ -2921,7 +3007,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10"/>
@@ -2932,8 +3018,8 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" ht="60">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:6" ht="30">
+      <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -2941,15 +3027,13 @@
         <v>48</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>138</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>3</v>
@@ -2958,8 +3042,8 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:6" s="1" customFormat="1" ht="90">
+      <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -2967,13 +3051,17 @@
         <v>49</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
         <v>14</v>
@@ -2983,7 +3071,7 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="24">
         <v>3</v>
       </c>
@@ -2991,15 +3079,13 @@
         <v>71</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:6" ht="75">
+      <c r="A11" s="34"/>
       <c r="B11" s="24">
         <v>4</v>
       </c>
@@ -3007,13 +3093,17 @@
         <v>107</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -3021,13 +3111,13 @@
         <v>50</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="30">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -3035,13 +3125,13 @@
         <v>53</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="10"/>
       <c r="C14" s="11" t="s">
         <v>4</v>
@@ -3050,8 +3140,8 @@
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
     </row>
-    <row r="15" spans="1:6" ht="30">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:6" ht="15">
+      <c r="A15" s="34"/>
       <c r="B15" s="5">
         <v>7</v>
       </c>
@@ -3059,15 +3149,13 @@
         <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>139</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="10"/>
       <c r="C16" s="11" t="s">
         <v>36</v>
@@ -3076,8 +3164,8 @@
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="1:6" ht="15">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:7" ht="15">
+      <c r="A17" s="34"/>
       <c r="B17" s="5">
         <v>8</v>
       </c>
@@ -3085,13 +3173,13 @@
         <v>37</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1">
-      <c r="A18" s="32" t="s">
+    <row r="18" spans="1:7" ht="15" customHeight="1">
+      <c r="A18" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="10"/>
@@ -3102,8 +3190,8 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
     </row>
-    <row r="19" spans="1:6" ht="45">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="34"/>
       <c r="B19" s="5">
         <v>9</v>
       </c>
@@ -3111,15 +3199,13 @@
         <v>54</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:7" ht="240">
+      <c r="A20" s="34"/>
       <c r="B20" s="24">
         <v>10</v>
       </c>
@@ -3127,15 +3213,17 @@
         <v>61</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A21" s="33"/>
+      <c r="F20" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>11</v>
       </c>
@@ -3143,13 +3231,13 @@
         <v>81</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="45">
-      <c r="A22" s="33"/>
+    <row r="22" spans="1:7" ht="75">
+      <c r="A22" s="34"/>
       <c r="B22" s="5">
         <v>12</v>
       </c>
@@ -3157,13 +3245,17 @@
         <v>100</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="30">
-      <c r="A23" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="34"/>
       <c r="B23" s="5">
         <v>13</v>
       </c>
@@ -3171,15 +3263,13 @@
         <v>62</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>133</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" s="1" customFormat="1" ht="15">
-      <c r="A24" s="33"/>
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15">
+      <c r="A24" s="34"/>
       <c r="B24" s="10"/>
       <c r="C24" s="11" t="s">
         <v>7</v>
@@ -3188,8 +3278,8 @@
       <c r="E24" s="13"/>
       <c r="F24" s="13"/>
     </row>
-    <row r="25" spans="1:6" s="1" customFormat="1" ht="75">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="30">
+      <c r="A25" s="34"/>
       <c r="B25" s="24">
         <v>15</v>
       </c>
@@ -3197,15 +3287,13 @@
         <v>98</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>137</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="315">
+      <c r="A26" s="34"/>
       <c r="B26" s="5">
         <v>16</v>
       </c>
@@ -3213,13 +3301,17 @@
         <v>60</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="15">
-      <c r="A27" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15">
+      <c r="A27" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="10"/>
@@ -3230,8 +3322,8 @@
       <c r="E27" s="13"/>
       <c r="F27" s="13"/>
     </row>
-    <row r="28" spans="1:6" ht="30">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:7" ht="30">
+      <c r="A28" s="34"/>
       <c r="B28" s="5">
         <v>17</v>
       </c>
@@ -3239,15 +3331,15 @@
         <v>54</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="30">
-      <c r="A29" s="33"/>
+        <v>122</v>
+      </c>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="105">
+      <c r="A29" s="34"/>
       <c r="B29" s="5">
         <v>18</v>
       </c>
@@ -3255,13 +3347,18 @@
         <v>59</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:7" ht="30">
+      <c r="A30" s="34"/>
       <c r="B30" s="5">
         <v>19</v>
       </c>
@@ -3269,13 +3366,13 @@
         <v>55</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="15">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:7" ht="165">
+      <c r="A31" s="34"/>
       <c r="B31" s="24">
         <v>20</v>
       </c>
@@ -3283,13 +3380,17 @@
         <v>56</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="30">
-      <c r="A32" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="105">
+      <c r="A32" s="34"/>
       <c r="B32" s="5">
         <v>21</v>
       </c>
@@ -3297,13 +3398,17 @@
         <v>57</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+        <v>122</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="5">
         <v>22</v>
       </c>
@@ -3311,13 +3416,13 @@
         <v>58</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B34" s="10"/>
@@ -3329,7 +3434,7 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="42"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="5">
         <v>23</v>
       </c>
@@ -3337,13 +3442,13 @@
         <v>118</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="15">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="5">
         <v>24</v>
       </c>
@@ -3351,13 +3456,13 @@
         <v>117</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="30">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="5">
         <v>25</v>
       </c>
@@ -3365,13 +3470,13 @@
         <v>65</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="15">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="5">
         <v>26</v>
       </c>
@@ -3379,13 +3484,13 @@
         <v>116</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="5">
         <v>27</v>
       </c>
@@ -3393,13 +3498,13 @@
         <v>67</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="5">
         <v>28</v>
       </c>
@@ -3407,13 +3512,13 @@
         <v>69</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="15" customHeight="1">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B41" s="10"/>
@@ -3425,7 +3530,7 @@
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="31"/>
+      <c r="A42" s="32"/>
       <c r="B42" s="5">
         <v>29</v>
       </c>
@@ -3433,13 +3538,13 @@
         <v>38</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="5">
         <v>30</v>
       </c>
@@ -3447,13 +3552,13 @@
         <v>39</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="5">
         <v>31</v>
       </c>
@@ -3461,13 +3566,13 @@
         <v>44</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="15">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="10"/>
       <c r="C45" s="11" t="s">
         <v>15</v>
@@ -3477,7 +3582,7 @@
       <c r="F45" s="13"/>
     </row>
     <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="5">
         <v>32</v>
       </c>
@@ -3485,13 +3590,13 @@
         <v>47</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="5">
         <v>33</v>
       </c>
@@ -3499,13 +3604,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="15">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="5">
         <v>34</v>
       </c>
@@ -3513,7 +3618,7 @@
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
@@ -3532,12 +3637,13 @@
     <mergeCell ref="A5:A17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D13 D15 D8 D17:D46" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D13 D15 D8 D17:D48" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Sim,Não,NA"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3560,41 +3666,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="22" t="e">
         <f>COUNTIF(D5:D51,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="6" t="s">
@@ -3617,7 +3723,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10"/>
@@ -3629,7 +3735,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -3641,7 +3747,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>3</v>
@@ -3651,7 +3757,7 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -3663,7 +3769,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
         <v>14</v>
@@ -3673,7 +3779,7 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -3685,7 +3791,7 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -3697,7 +3803,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -3709,7 +3815,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>4</v>
@@ -3719,7 +3825,7 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>6</v>
       </c>
@@ -3731,7 +3837,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
         <v>36</v>
@@ -3741,7 +3847,7 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="15">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>7</v>
       </c>
@@ -3753,7 +3859,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="10"/>
@@ -3765,7 +3871,7 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>8</v>
       </c>
@@ -3777,7 +3883,7 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="30">
-      <c r="A19" s="33"/>
+      <c r="A19" s="34"/>
       <c r="B19" s="5">
         <v>9</v>
       </c>
@@ -3789,7 +3895,7 @@
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="10"/>
       <c r="C20" s="11" t="s">
         <v>7</v>
@@ -3799,7 +3905,7 @@
       <c r="F20" s="13"/>
     </row>
     <row r="21" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>10</v>
       </c>
@@ -3811,7 +3917,7 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="10"/>
@@ -3823,7 +3929,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="45">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="5">
         <v>11</v>
       </c>
@@ -3835,7 +3941,7 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="30">
-      <c r="A24" s="33"/>
+      <c r="A24" s="34"/>
       <c r="B24" s="5">
         <v>12</v>
       </c>
@@ -3847,7 +3953,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="30">
-      <c r="A25" s="33"/>
+      <c r="A25" s="34"/>
       <c r="B25" s="5">
         <v>13</v>
       </c>
@@ -3859,7 +3965,7 @@
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="5">
         <v>14</v>
       </c>
@@ -3871,7 +3977,7 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>15</v>
       </c>
@@ -3883,7 +3989,7 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="33"/>
+      <c r="A28" s="34"/>
       <c r="B28" s="5">
         <v>16</v>
       </c>
@@ -3895,7 +4001,7 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" ht="15">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="10"/>
@@ -3907,7 +4013,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" ht="30">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="24">
         <v>17</v>
       </c>
@@ -3919,7 +4025,7 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" ht="30">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="5">
         <v>18</v>
       </c>
@@ -3931,7 +4037,7 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="5">
         <v>19</v>
       </c>
@@ -3943,7 +4049,7 @@
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="5">
         <v>20</v>
       </c>
@@ -3955,7 +4061,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="33"/>
+      <c r="A34" s="34"/>
       <c r="B34" s="5">
         <v>21</v>
       </c>
@@ -3967,7 +4073,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="33"/>
+      <c r="A35" s="34"/>
       <c r="B35" s="5">
         <v>22</v>
       </c>
@@ -3979,7 +4085,7 @@
       <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6" ht="15">
-      <c r="A36" s="36"/>
+      <c r="A36" s="37"/>
       <c r="B36" s="5">
         <v>23</v>
       </c>
@@ -3991,7 +4097,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="15">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B37" s="10"/>
@@ -4003,7 +4109,7 @@
       <c r="F37" s="13"/>
     </row>
     <row r="38" spans="1:6" ht="30">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="5">
         <v>24</v>
       </c>
@@ -4015,7 +4121,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="45">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="5">
         <v>25</v>
       </c>
@@ -4027,7 +4133,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="5">
         <v>26</v>
       </c>
@@ -4039,7 +4145,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="15">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="5">
         <v>27</v>
       </c>
@@ -4051,7 +4157,7 @@
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="15">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="5">
         <v>28</v>
       </c>
@@ -4063,7 +4169,7 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15">
-      <c r="A43" s="42"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="5">
         <v>29</v>
       </c>
@@ -4075,7 +4181,7 @@
       <c r="F43" s="8"/>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="10"/>
@@ -4087,7 +4193,7 @@
       <c r="F44" s="13"/>
     </row>
     <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="5">
         <v>30</v>
       </c>
@@ -4099,7 +4205,7 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="15">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="5">
         <v>31</v>
       </c>
@@ -4111,7 +4217,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="5">
         <v>32</v>
       </c>
@@ -4123,7 +4229,7 @@
       <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6" ht="15">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="10"/>
       <c r="C48" s="11" t="s">
         <v>15</v>
@@ -4133,7 +4239,7 @@
       <c r="F48" s="13"/>
     </row>
     <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="5">
         <v>33</v>
       </c>
@@ -4145,7 +4251,7 @@
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" ht="15">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="5">
         <v>34</v>
       </c>
@@ -4157,7 +4263,7 @@
       <c r="F50" s="8"/>
     </row>
     <row r="51" spans="1:6" ht="15">
-      <c r="A51" s="31"/>
+      <c r="A51" s="32"/>
       <c r="B51" s="5">
         <v>35</v>
       </c>
@@ -4198,17 +4304,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4239,41 +4345,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" customHeight="1">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
       <c r="C2" s="17"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="41"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="22" t="e">
         <f>COUNTIF(D5:D50,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="40"/>
     </row>
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="6" t="s">
@@ -4296,7 +4402,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="33" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10"/>
@@ -4308,7 +4414,7 @@
       <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:6" ht="30">
-      <c r="A6" s="33"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="5">
         <v>1</v>
       </c>
@@ -4320,7 +4426,7 @@
       <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" ht="15">
-      <c r="A7" s="33"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="10"/>
       <c r="C7" s="11" t="s">
         <v>3</v>
@@ -4330,7 +4436,7 @@
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A8" s="33"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="5">
         <v>2</v>
       </c>
@@ -4342,7 +4448,7 @@
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="10"/>
       <c r="C9" s="11" t="s">
         <v>14</v>
@@ -4352,7 +4458,7 @@
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="45">
-      <c r="A10" s="33"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -4364,7 +4470,7 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="30">
-      <c r="A11" s="33"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -4376,7 +4482,7 @@
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -4388,7 +4494,7 @@
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="15">
-      <c r="A13" s="33"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="10"/>
       <c r="C13" s="11" t="s">
         <v>4</v>
@@ -4398,7 +4504,7 @@
       <c r="F13" s="13"/>
     </row>
     <row r="14" spans="1:6" ht="15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="5">
         <v>6</v>
       </c>
@@ -4410,7 +4516,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="10"/>
       <c r="C15" s="11" t="s">
         <v>36</v>
@@ -4420,7 +4526,7 @@
       <c r="F15" s="13"/>
     </row>
     <row r="16" spans="1:6" ht="30">
-      <c r="A16" s="33"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="5">
         <v>7</v>
       </c>
@@ -4432,7 +4538,7 @@
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="10"/>
@@ -4444,7 +4550,7 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>8</v>
       </c>
@@ -4456,7 +4562,7 @@
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="10"/>
@@ -4468,7 +4574,7 @@
       <c r="F19" s="13"/>
     </row>
     <row r="20" spans="1:6" ht="30">
-      <c r="A20" s="33"/>
+      <c r="A20" s="34"/>
       <c r="B20" s="5">
         <v>9</v>
       </c>
@@ -4480,7 +4586,7 @@
       <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" ht="15">
-      <c r="A21" s="33"/>
+      <c r="A21" s="34"/>
       <c r="B21" s="5">
         <v>10</v>
       </c>
@@ -4492,7 +4598,7 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="30">
-      <c r="A22" s="33"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="5">
         <v>11</v>
       </c>
@@ -4504,7 +4610,7 @@
       <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" ht="15">
-      <c r="A23" s="33"/>
+      <c r="A23" s="34"/>
       <c r="B23" s="5">
         <v>12</v>
       </c>
@@ -4516,7 +4622,7 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="15">
-      <c r="A24" s="36"/>
+      <c r="A24" s="37"/>
       <c r="B24" s="5">
         <v>13</v>
       </c>
@@ -4528,7 +4634,7 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="15">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="10"/>
@@ -4540,7 +4646,7 @@
       <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" ht="15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="34"/>
       <c r="B26" s="5">
         <v>14</v>
       </c>
@@ -4552,7 +4658,7 @@
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" ht="30">
-      <c r="A27" s="33"/>
+      <c r="A27" s="34"/>
       <c r="B27" s="5">
         <v>15</v>
       </c>
@@ -4564,7 +4670,7 @@
       <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" ht="15">
-      <c r="A28" s="36"/>
+      <c r="A28" s="37"/>
       <c r="B28" s="5">
         <v>16</v>
       </c>
@@ -4576,7 +4682,7 @@
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B29" s="10"/>
@@ -4588,7 +4694,7 @@
       <c r="F29" s="13"/>
     </row>
     <row r="30" spans="1:6" s="1" customFormat="1" ht="30">
-      <c r="A30" s="33"/>
+      <c r="A30" s="34"/>
       <c r="B30" s="24">
         <v>24</v>
       </c>
@@ -4600,7 +4706,7 @@
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6" s="1" customFormat="1" ht="45">
-      <c r="A31" s="33"/>
+      <c r="A31" s="34"/>
       <c r="B31" s="5">
         <v>25</v>
       </c>
@@ -4612,7 +4718,7 @@
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15">
-      <c r="A32" s="33"/>
+      <c r="A32" s="34"/>
       <c r="B32" s="10"/>
       <c r="C32" s="11" t="s">
         <v>10</v>
@@ -4622,7 +4728,7 @@
       <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="30">
-      <c r="A33" s="33"/>
+      <c r="A33" s="34"/>
       <c r="B33" s="24">
         <v>26</v>
       </c>
@@ -4634,7 +4740,7 @@
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15">
-      <c r="A34" s="36"/>
+      <c r="A34" s="37"/>
       <c r="B34" s="5">
         <v>27</v>
       </c>
@@ -4646,7 +4752,7 @@
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="15">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="10"/>
@@ -4658,7 +4764,7 @@
       <c r="F35" s="13"/>
     </row>
     <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="42"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="5">
         <v>19</v>
       </c>
@@ -4670,7 +4776,7 @@
       <c r="F36" s="8"/>
     </row>
     <row r="37" spans="1:6" ht="45">
-      <c r="A37" s="42"/>
+      <c r="A37" s="43"/>
       <c r="B37" s="5">
         <v>20</v>
       </c>
@@ -4682,7 +4788,7 @@
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6" ht="30">
-      <c r="A38" s="42"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="5">
         <v>21</v>
       </c>
@@ -4694,7 +4800,7 @@
       <c r="F38" s="8"/>
     </row>
     <row r="39" spans="1:6" ht="15">
-      <c r="A39" s="42"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="5">
         <v>22</v>
       </c>
@@ -4706,7 +4812,7 @@
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="15">
-      <c r="A40" s="42"/>
+      <c r="A40" s="43"/>
       <c r="B40" s="5">
         <v>23</v>
       </c>
@@ -4718,7 +4824,7 @@
       <c r="F40" s="8"/>
     </row>
     <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="42"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="5">
         <v>24</v>
       </c>
@@ -4730,7 +4836,7 @@
       <c r="F41" s="8"/>
     </row>
     <row r="42" spans="1:6" ht="15">
-      <c r="A42" s="42"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="5">
         <v>25</v>
       </c>
@@ -4742,7 +4848,7 @@
       <c r="F42" s="8"/>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1">
-      <c r="A43" s="30" t="s">
+      <c r="A43" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B43" s="10"/>
@@ -4754,7 +4860,7 @@
       <c r="F43" s="13"/>
     </row>
     <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="31"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="5">
         <v>26</v>
       </c>
@@ -4766,7 +4872,7 @@
       <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6" ht="15">
-      <c r="A45" s="31"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="5">
         <v>27</v>
       </c>
@@ -4778,7 +4884,7 @@
       <c r="F45" s="8"/>
     </row>
     <row r="46" spans="1:6" ht="30">
-      <c r="A46" s="31"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="5">
         <v>28</v>
       </c>
@@ -4790,7 +4896,7 @@
       <c r="F46" s="8"/>
     </row>
     <row r="47" spans="1:6" ht="15">
-      <c r="A47" s="31"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="10"/>
       <c r="C47" s="11" t="s">
         <v>15</v>
@@ -4800,7 +4906,7 @@
       <c r="F47" s="13"/>
     </row>
     <row r="48" spans="1:6" ht="30">
-      <c r="A48" s="31"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="5">
         <v>29</v>
       </c>
@@ -4812,7 +4918,7 @@
       <c r="F48" s="8"/>
     </row>
     <row r="49" spans="1:6" ht="15">
-      <c r="A49" s="31"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="5">
         <v>30</v>
       </c>
@@ -4824,7 +4930,7 @@
       <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6" ht="15">
-      <c r="A50" s="31"/>
+      <c r="A50" s="32"/>
       <c r="B50" s="5">
         <v>31</v>
       </c>
@@ -4865,11 +4971,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -4877,6 +4978,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E120878C-B409-433C-A577-8B4C1D966255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD136B6F-1C73-4674-B29A-A762D80BB57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="158">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1089,6 +1089,21 @@
   </si>
   <si>
     <t>O planejado foram quatro Sprints e estamos dentro do prazo planejado.</t>
+  </si>
+  <si>
+    <t>Foi ultilizado o PostegreSQL como pacrão no projeto.</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>Dentro do planejado</t>
+  </si>
+  <si>
+    <t>Adicionado visitante externo</t>
+  </si>
+  <si>
+    <t>Padrões de codificações referentes ao código.</t>
   </si>
 </sst>
 </file>
@@ -1621,10 +1636,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2131,18 +2146,18 @@
       <c r="A5" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="21" t="e">
+      <c r="B5" s="21">
         <f>'Ver-Construção1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="21" t="e">
+      <c r="B6" s="21">
         <f>'Ver-Transição1'!$F$2</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2931,7 +2946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3651,8 +3666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3680,14 +3695,16 @@
         <v>25</v>
       </c>
       <c r="B2" s="36"/>
-      <c r="C2" s="17"/>
+      <c r="C2" s="28">
+        <v>44216</v>
+      </c>
       <c r="D2" s="41" t="s">
         <v>46</v>
       </c>
       <c r="E2" s="42"/>
-      <c r="F2" s="22" t="e">
+      <c r="F2" s="22">
         <f>COUNTIF(D5:D51,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -3695,7 +3712,9 @@
         <v>26</v>
       </c>
       <c r="B3" s="36"/>
-      <c r="C3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="D3" s="38" t="s">
         <v>45</v>
       </c>
@@ -3742,7 +3761,9 @@
       <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
@@ -3764,8 +3785,12 @@
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="8"/>
+      <c r="D8" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>156</v>
+      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="15">
@@ -3786,7 +3811,9 @@
       <c r="C10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
@@ -3798,7 +3825,9 @@
       <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -3810,7 +3839,9 @@
       <c r="C12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
@@ -3832,7 +3863,9 @@
       <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
@@ -3854,7 +3887,9 @@
       <c r="C16" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
@@ -3878,7 +3913,9 @@
       <c r="C18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
@@ -3890,8 +3927,12 @@
       <c r="C19" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="8"/>
+      <c r="D19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>153</v>
+      </c>
       <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="1" customFormat="1" ht="15">
@@ -3912,8 +3953,12 @@
       <c r="C21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="8"/>
+      <c r="D21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6" ht="15">
@@ -3936,7 +3981,9 @@
       <c r="C23" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
@@ -3948,7 +3995,9 @@
       <c r="C24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
@@ -3960,7 +4009,9 @@
       <c r="C25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
@@ -3972,7 +4023,9 @@
       <c r="C26" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
@@ -3984,7 +4037,9 @@
       <c r="C27" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
@@ -3996,7 +4051,9 @@
       <c r="C28" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
@@ -4020,7 +4077,9 @@
       <c r="C30" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
@@ -4032,8 +4091,12 @@
       <c r="C31" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="8"/>
+      <c r="D31" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6" ht="15">
@@ -4044,8 +4107,12 @@
       <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="8"/>
+      <c r="D32" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6" ht="15">
@@ -4056,8 +4123,12 @@
       <c r="C33" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="8"/>
+      <c r="D33" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6" ht="15">
@@ -4068,8 +4139,12 @@
       <c r="C34" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="8"/>
+      <c r="D34" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>154</v>
+      </c>
       <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6" ht="30">
@@ -4080,7 +4155,9 @@
       <c r="C35" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
@@ -4092,7 +4169,9 @@
       <c r="C36" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
@@ -4116,7 +4195,9 @@
       <c r="C38" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
@@ -4128,8 +4209,12 @@
       <c r="C39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="8"/>
+      <c r="D39" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="F39" s="8"/>
     </row>
     <row r="40" spans="1:6" ht="30">
@@ -4140,7 +4225,9 @@
       <c r="C40" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
@@ -4152,7 +4239,9 @@
       <c r="C41" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
@@ -4164,7 +4253,9 @@
       <c r="C42" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
@@ -4176,7 +4267,9 @@
       <c r="C43" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
@@ -4200,7 +4293,9 @@
       <c r="C45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
@@ -4212,7 +4307,9 @@
       <c r="C46" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
@@ -4224,7 +4321,9 @@
       <c r="C47" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
@@ -4246,7 +4345,9 @@
       <c r="C49" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
@@ -4258,7 +4359,9 @@
       <c r="C50" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
@@ -4270,7 +4373,9 @@
       <c r="C51" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
@@ -4330,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4364,9 +4469,9 @@
         <v>46</v>
       </c>
       <c r="E2" s="42"/>
-      <c r="F2" s="22" t="e">
+      <c r="F2" s="22">
         <f>COUNTIF(D5:D50,"Sim")/(COUNTA(D5:D49)-COUNTIF(D5:D49,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1">
@@ -4421,7 +4526,9 @@
       <c r="C6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
@@ -4443,7 +4550,9 @@
       <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
@@ -4465,7 +4574,9 @@
       <c r="C10" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
@@ -4477,7 +4588,9 @@
       <c r="C11" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
@@ -4489,7 +4602,9 @@
       <c r="C12" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
@@ -4511,7 +4626,9 @@
       <c r="C14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
@@ -4533,7 +4650,9 @@
       <c r="C16" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
@@ -4557,7 +4676,9 @@
       <c r="C18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
@@ -4581,7 +4702,9 @@
       <c r="C20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
@@ -4593,7 +4716,9 @@
       <c r="C21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
@@ -4605,7 +4730,9 @@
       <c r="C22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
@@ -4617,7 +4744,9 @@
       <c r="C23" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
@@ -4629,7 +4758,9 @@
       <c r="C24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
@@ -4653,7 +4784,9 @@
       <c r="C26" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
@@ -4665,7 +4798,9 @@
       <c r="C27" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
@@ -4677,7 +4812,9 @@
       <c r="C28" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>

--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD136B6F-1C73-4674-B29A-A762D80BB57C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACF1DEA-D306-48CD-B9A6-DABFA339E957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicadores" sheetId="6" r:id="rId1"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="158">
   <si>
     <t>Ambiente</t>
   </si>
@@ -3666,7 +3666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -4409,17 +4409,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4435,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4838,7 +4838,9 @@
       <c r="C30" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
@@ -4850,7 +4852,9 @@
       <c r="C31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
@@ -4872,7 +4876,9 @@
       <c r="C33" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
@@ -4884,7 +4890,9 @@
       <c r="C34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
@@ -4908,7 +4916,9 @@
       <c r="C36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
@@ -4920,7 +4930,9 @@
       <c r="C37" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
@@ -4932,7 +4944,9 @@
       <c r="C38" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
@@ -4944,7 +4958,9 @@
       <c r="C39" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
@@ -4956,7 +4972,9 @@
       <c r="C40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
@@ -4968,7 +4986,9 @@
       <c r="C41" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
@@ -4980,7 +5000,9 @@
       <c r="C42" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
@@ -5004,7 +5026,9 @@
       <c r="C44" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
@@ -5016,7 +5040,9 @@
       <c r="C45" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="D45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
@@ -5028,7 +5054,9 @@
       <c r="C46" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D46" s="3"/>
+      <c r="D46" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
@@ -5050,7 +5078,9 @@
       <c r="C48" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D48" s="3"/>
+      <c r="D48" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
@@ -5062,7 +5092,9 @@
       <c r="C49" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D49" s="3"/>
+      <c r="D49" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
@@ -5074,7 +5106,9 @@
       <c r="C50" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D50" s="3"/>
+      <c r="D50" s="3" t="s">
+        <v>122</v>
+      </c>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
@@ -5108,6 +5142,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -5115,11 +5154,6 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">

--- a/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
+++ b/Estrutura-Projeto/JOB SEA-Projeto/Gerenciamento de Projeto/JOB SEA-Checklist-Verificacao de Projeto-interna.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACF1DEA-D306-48CD-B9A6-DABFA339E957}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5B5AE2-AF2D-4C8D-B1C1-C8886AEAEA19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="159">
   <si>
     <t>Ambiente</t>
   </si>
@@ -1104,6 +1104,9 @@
   </si>
   <si>
     <t>Padrões de codificações referentes ao código.</t>
+  </si>
+  <si>
+    <t>Agora o projeto faz API com o MongoDB</t>
   </si>
 </sst>
 </file>
@@ -4409,17 +4412,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:F3"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A37:A43"/>
     <mergeCell ref="A44:A51"/>
     <mergeCell ref="A29:A36"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:F3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D49" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -4435,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4668,7 +4671,7 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="1:6" ht="15">
+    <row r="18" spans="1:6" ht="30">
       <c r="A18" s="34"/>
       <c r="B18" s="5">
         <v>8</v>
@@ -4677,9 +4680,11 @@
         <v>80</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>123</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" ht="15" customHeight="1">
@@ -4717,7 +4722,7 @@
         <v>84</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
@@ -5041,7 +5046,7 @@
         <v>39</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -5142,11 +5147,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A35:A42"/>
-    <mergeCell ref="A43:A50"/>
-    <mergeCell ref="A19:A24"/>
-    <mergeCell ref="A29:A34"/>
     <mergeCell ref="A5:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A1:F1"/>
@@ -5154,6 +5154,11 @@
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A43:A50"/>
+    <mergeCell ref="A19:A24"/>
+    <mergeCell ref="A29:A34"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6 D10:D12 D14 D8 D16:D48" xr:uid="{00000000-0002-0000-0400-000000000000}">
